--- a/users.xlsx
+++ b/users.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$2b$12$KNQ/uGCiV0mDbcCwWd6vQOJB0O5POnQGWPAfgUUGS.uluCYEjxmqi</t>
+          <t>$2b$12$wZKuWYE.RUjLcjbWQHujReveyMTBJdbprBEz1V8dytcMH0UUF0lqG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sanaa@bcp.co.ma</t>
+          <t>admin@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45757.50475755911</v>
+        <v>45757.51980034723</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>45757.46704849537</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45757.46817486111</v>
+        <v>45757.52012422454</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
@@ -563,7 +563,7 @@
         <v>45757.471091875</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45757.47225857639</v>
+        <v>45757.52098699047</v>
       </c>
     </row>
   </sheetData>
